--- a/Scheme/Timers.xlsx
+++ b/Scheme/Timers.xlsx
@@ -47,9 +47,6 @@
     <t>TIM3</t>
   </si>
   <si>
-    <t>подсветка LCD</t>
-  </si>
-  <si>
     <t>TIM4</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>аудио-процессор</t>
   </si>
   <si>
-    <t>отладка</t>
-  </si>
-  <si>
     <t>TIM7</t>
   </si>
   <si>
@@ -72,6 +66,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>служебное</t>
+  </si>
+  <si>
+    <t>WiFi</t>
   </si>
 </sst>
 </file>
@@ -411,9 +411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -428,16 +426,16 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -445,7 +443,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>100</v>
@@ -487,47 +485,47 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>200</v>
-      </c>
-      <c r="C5" s="1">
-        <v>200</v>
-      </c>
-      <c r="D5" s="1">
-        <v>99</v>
-      </c>
-      <c r="E5" s="1">
-        <v>200</v>
-      </c>
-      <c r="F5" s="1">
-        <v>200</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <f>B4/(B6+1)/B3-1</f>
+        <v>49999</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" ref="C5:F5" si="1">C4/(C6+1)/C3-1</f>
+        <v>9999</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="1"/>
+        <v>41.08754208754209</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="1"/>
+        <v>49999</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="1"/>
+        <v>999</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2">
-        <f>B4/B5/B3</f>
-        <v>1000</v>
-      </c>
-      <c r="C6" s="2">
-        <f>C4/C5/C3</f>
-        <v>10000</v>
-      </c>
-      <c r="D6" s="2">
-        <f>D4/D5/D3</f>
-        <v>42.08754208754209</v>
-      </c>
-      <c r="E6" s="2">
-        <f>E4/E5/E3</f>
-        <v>50000</v>
-      </c>
-      <c r="F6" s="2">
-        <f>F4/F5/F3</f>
-        <v>1000</v>
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>199</v>
+      </c>
+      <c r="C6" s="1">
+        <v>199</v>
+      </c>
+      <c r="D6" s="1">
+        <v>98</v>
+      </c>
+      <c r="E6" s="1">
+        <v>199</v>
+      </c>
+      <c r="F6" s="1">
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -535,46 +533,46 @@
         <v>3</v>
       </c>
       <c r="B7" s="2">
-        <f>B4/B5/B6</f>
-        <v>1000</v>
+        <f>B4/(B6+1)/(B5+1)</f>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
-        <f>C4/C5/C6</f>
+        <f t="shared" ref="C7:F7" si="2">C4/(C6+1)/(C5+1)</f>
         <v>100</v>
       </c>
       <c r="D7" s="2">
-        <f>D4/D5/D6</f>
+        <f t="shared" si="2"/>
         <v>48000</v>
       </c>
       <c r="E7" s="2">
-        <f>E4/E5/E6</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F7" s="2">
-        <f>F4/F5/F6</f>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Scheme/Timers.xlsx
+++ b/Scheme/Timers.xlsx
@@ -411,7 +411,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Scheme/Timers.xlsx
+++ b/Scheme/Timers.xlsx
@@ -412,7 +412,7 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,7 +451,7 @@
         <v>100</v>
       </c>
       <c r="D3" s="1">
-        <v>48000</v>
+        <v>5000</v>
       </c>
       <c r="E3" s="1">
         <v>20</v>
@@ -499,7 +499,7 @@
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
-        <v>41.08754208754209</v>
+        <v>399</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="1"/>
@@ -521,7 +521,7 @@
         <v>199</v>
       </c>
       <c r="D6" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E6" s="1">
         <v>199</v>
@@ -544,7 +544,7 @@
       </c>
       <c r="D7" s="2">
         <f t="shared" si="2"/>
-        <v>48000</v>
+        <v>5000</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="2"/>

--- a/Scheme/Timers.xlsx
+++ b/Scheme/Timers.xlsx
@@ -451,7 +451,7 @@
         <v>100</v>
       </c>
       <c r="D3" s="1">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="E3" s="1">
         <v>20</v>
@@ -499,7 +499,7 @@
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
-        <v>399</v>
+        <v>99</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="1"/>
@@ -544,7 +544,7 @@
       </c>
       <c r="D7" s="2">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="2"/>

--- a/Scheme/Timers.xlsx
+++ b/Scheme/Timers.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>period</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>WiFi</t>
+  </si>
+  <si>
+    <t>TIM15</t>
+  </si>
+  <si>
+    <t>EEPROM/PERIPH</t>
   </si>
 </sst>
 </file>
@@ -409,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F15"/>
+  <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,9 +427,10 @@
     <col min="2" max="3" width="15.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" style="1" customWidth="1"/>
     <col min="5" max="6" width="15.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
@@ -439,8 +446,11 @@
       <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -459,8 +469,11 @@
       <c r="F3" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -473,7 +486,7 @@
         <v>200000000</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:F4" si="0">C4</f>
+        <f t="shared" ref="D4:G4" si="0">C4</f>
         <v>200000000</v>
       </c>
       <c r="E4" s="4">
@@ -484,8 +497,12 @@
         <f t="shared" si="0"/>
         <v>200000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="4">
+        <f t="shared" si="0"/>
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -509,8 +526,12 @@
         <f t="shared" si="1"/>
         <v>999</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="2">
+        <f t="shared" ref="G5" si="2">G4/(G6+1)/G3-1</f>
+        <v>499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -529,8 +550,11 @@
       <c r="F6" s="1">
         <v>199</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="1">
+        <v>19999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -539,23 +563,33 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" ref="C7:F7" si="2">C4/(C6+1)/(C5+1)</f>
+        <f t="shared" ref="C7:F7" si="3">C4/(C6+1)/(C5+1)</f>
         <v>100</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20000</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="2">
+        <f t="shared" ref="G7" si="4">G4/(G6+1)/(G5+1)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
@@ -571,8 +605,11 @@
       <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>

--- a/Scheme/Timers.xlsx
+++ b/Scheme/Timers.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>period</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>EEPROM/PERIPH</t>
+  </si>
+  <si>
+    <t>интервал, мс</t>
   </si>
 </sst>
 </file>
@@ -418,7 +421,7 @@
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +467,7 @@
         <v>20000</v>
       </c>
       <c r="E3" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F3" s="1">
         <v>1000</v>
@@ -520,7 +523,7 @@
       </c>
       <c r="E5" s="2">
         <f t="shared" si="1"/>
-        <v>49999</v>
+        <v>9999</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="1"/>
@@ -572,7 +575,7 @@
       </c>
       <c r="E7" s="2">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="3"/>
@@ -607,6 +610,35 @@
       </c>
       <c r="G10" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" ref="B12:D12" si="5">1000/B3</f>
+        <v>50</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="5"/>
+        <v>0.05</v>
+      </c>
+      <c r="E12" s="1">
+        <f>1000/E3</f>
+        <v>10</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" ref="F12:G12" si="6">1000/F3</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="6"/>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">

--- a/Scheme/Timers.xlsx
+++ b/Scheme/Timers.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>period</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>интервал, мс</t>
+  </si>
+  <si>
+    <t>TIM16</t>
+  </si>
+  <si>
+    <t>опрос ENC2</t>
   </si>
 </sst>
 </file>
@@ -418,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G15"/>
+  <dimension ref="A2:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,9 +437,10 @@
     <col min="4" max="4" width="16.85546875" style="1" customWidth="1"/>
     <col min="5" max="6" width="15.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
@@ -452,8 +459,11 @@
       <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -475,8 +485,11 @@
       <c r="G3" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -489,7 +502,7 @@
         <v>200000000</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:G4" si="0">C4</f>
+        <f t="shared" ref="D4:H4" si="0">C4</f>
         <v>200000000</v>
       </c>
       <c r="E4" s="4">
@@ -504,8 +517,12 @@
         <f t="shared" si="0"/>
         <v>200000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -530,11 +547,15 @@
         <v>999</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" ref="G5" si="2">G4/(G6+1)/G3-1</f>
+        <f t="shared" ref="G5:H5" si="2">G4/(G6+1)/G3-1</f>
         <v>499</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="2">
+        <f t="shared" si="2"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -556,8 +577,11 @@
       <c r="G6" s="1">
         <v>19999</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -582,17 +606,21 @@
         <v>1000</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" ref="G7" si="4">G4/(G6+1)/(G5+1)</f>
+        <f t="shared" ref="G7:H7" si="4">G4/(G6+1)/(G5+1)</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="2">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
@@ -611,8 +639,11 @@
       <c r="G10" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -640,8 +671,12 @@
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="1">
+        <f t="shared" ref="H12" si="7">1000/H3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>

--- a/Scheme/Timers.xlsx
+++ b/Scheme/Timers.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>period</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>опрос ENC2</t>
+  </si>
+  <si>
+    <t>TIM17</t>
+  </si>
+  <si>
+    <t>Декодирование CW, …</t>
   </si>
 </sst>
 </file>
@@ -424,11 +430,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H15"/>
+  <dimension ref="A2:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -438,9 +442,10 @@
     <col min="5" max="6" width="15.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
@@ -462,8 +467,11 @@
       <c r="H2" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -488,8 +496,11 @@
       <c r="H3" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -502,7 +513,7 @@
         <v>200000000</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:H4" si="0">C4</f>
+        <f t="shared" ref="D4:I4" si="0">C4</f>
         <v>200000000</v>
       </c>
       <c r="E4" s="4">
@@ -521,8 +532,12 @@
         <f t="shared" si="0"/>
         <v>200000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="4">
+        <f t="shared" si="0"/>
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -547,15 +562,19 @@
         <v>999</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" ref="G5:H5" si="2">G4/(G6+1)/G3-1</f>
+        <f t="shared" ref="G5:I5" si="2">G4/(G6+1)/G3-1</f>
         <v>499</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="2"/>
         <v>999</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="2">
+        <f t="shared" si="2"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -580,8 +599,11 @@
       <c r="H6" s="1">
         <v>199</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -606,21 +628,25 @@
         <v>1000</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" ref="G7:H7" si="4">G4/(G6+1)/(G5+1)</f>
+        <f t="shared" ref="G7:I7" si="4">G4/(G6+1)/(G5+1)</f>
         <v>20</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="2">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
@@ -642,8 +668,11 @@
       <c r="H10" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -672,11 +701,15 @@
         <v>50</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" ref="H12" si="7">1000/H3</f>
+        <f t="shared" ref="H12:I12" si="7">1000/H3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>

--- a/Scheme/Timers.xlsx
+++ b/Scheme/Timers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Develop\Projects\UA3REO\Scheme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Develop\Projects\UA3REO\Scheme\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -432,7 +432,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -505,36 +507,36 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <f>200*1000*1000</f>
-        <v>200000000</v>
+        <f>240*1000*1000</f>
+        <v>240000000</v>
       </c>
       <c r="C4" s="4">
         <f>B4</f>
-        <v>200000000</v>
+        <v>240000000</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ref="D4:I4" si="0">C4</f>
-        <v>200000000</v>
+        <v>240000000</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="0"/>
-        <v>200000000</v>
+        <v>240000000</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="0"/>
-        <v>200000000</v>
+        <v>240000000</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" si="0"/>
-        <v>200000000</v>
+        <v>240000000</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="0"/>
-        <v>200000000</v>
+        <v>240000000</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" si="0"/>
-        <v>200000000</v>
+        <v>240000000</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -543,35 +545,35 @@
       </c>
       <c r="B5" s="2">
         <f>B4/(B6+1)/B3-1</f>
-        <v>49999</v>
+        <v>59999</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5:F5" si="1">C4/(C6+1)/C3-1</f>
-        <v>9999</v>
+        <v>11999</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="1"/>
-        <v>9999</v>
+        <v>11999</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="1"/>
-        <v>999</v>
+        <v>1199</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" ref="G5:I5" si="2">G4/(G6+1)/G3-1</f>
-        <v>499</v>
+        <v>599</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="2"/>
-        <v>999</v>
+        <v>1199</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="2"/>
-        <v>999</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">

--- a/Scheme/Timers.xlsx
+++ b/Scheme/Timers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Develop\Projects\UA3REO\Scheme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Develop\Projects\UA3REO\Scheme\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -433,7 +433,7 @@
   <dimension ref="A2:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,36 +507,36 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <f>240*1000*1000</f>
-        <v>240000000</v>
+        <f>200*1000*1000</f>
+        <v>200000000</v>
       </c>
       <c r="C4" s="4">
         <f>B4</f>
-        <v>240000000</v>
+        <v>200000000</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ref="D4:I4" si="0">C4</f>
-        <v>240000000</v>
+        <v>200000000</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="0"/>
-        <v>240000000</v>
+        <v>200000000</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="0"/>
-        <v>240000000</v>
+        <v>200000000</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" si="0"/>
-        <v>240000000</v>
+        <v>200000000</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="0"/>
-        <v>240000000</v>
+        <v>200000000</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" si="0"/>
-        <v>240000000</v>
+        <v>200000000</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -545,35 +545,35 @@
       </c>
       <c r="B5" s="2">
         <f>B4/(B6+1)/B3-1</f>
-        <v>59999</v>
+        <v>49999</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5:F5" si="1">C4/(C6+1)/C3-1</f>
-        <v>11999</v>
+        <v>9999</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="1"/>
-        <v>11999</v>
+        <v>9999</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="1"/>
-        <v>1199</v>
+        <v>999</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" ref="G5:I5" si="2">G4/(G6+1)/G3-1</f>
-        <v>599</v>
+        <v>499</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="2"/>
-        <v>1199</v>
+        <v>999</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="2"/>
-        <v>1199</v>
+        <v>999</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">

--- a/Scheme/Timers.xlsx
+++ b/Scheme/Timers.xlsx
@@ -433,7 +433,7 @@
   <dimension ref="A2:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,36 +507,36 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <f>200*1000*1000</f>
-        <v>200000000</v>
+        <f>240*1000*1000</f>
+        <v>240000000</v>
       </c>
       <c r="C4" s="4">
         <f>B4</f>
-        <v>200000000</v>
+        <v>240000000</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ref="D4:I4" si="0">C4</f>
-        <v>200000000</v>
+        <v>240000000</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="0"/>
-        <v>200000000</v>
+        <v>240000000</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="0"/>
-        <v>200000000</v>
+        <v>240000000</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" si="0"/>
-        <v>200000000</v>
+        <v>240000000</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="0"/>
-        <v>200000000</v>
+        <v>240000000</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" si="0"/>
-        <v>200000000</v>
+        <v>240000000</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -545,35 +545,35 @@
       </c>
       <c r="B5" s="2">
         <f>B4/(B6+1)/B3-1</f>
-        <v>49999</v>
+        <v>59999</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5:F5" si="1">C4/(C6+1)/C3-1</f>
-        <v>9999</v>
+        <v>11999</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="1"/>
-        <v>9999</v>
+        <v>11999</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="1"/>
-        <v>999</v>
+        <v>1199</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" ref="G5:I5" si="2">G4/(G6+1)/G3-1</f>
-        <v>499</v>
+        <v>599</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="2"/>
-        <v>999</v>
+        <v>1199</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="2"/>
-        <v>999</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">

--- a/Scheme/Timers.xlsx
+++ b/Scheme/Timers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Develop\Projects\UA3REO\Scheme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Develop\Projects\WOLF\Scheme\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -433,7 +433,7 @@
   <dimension ref="A2:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +478,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="C3" s="1">
         <v>100</v>
@@ -545,7 +545,7 @@
       </c>
       <c r="B5" s="2">
         <f>B4/(B6+1)/B3-1</f>
-        <v>59999</v>
+        <v>1199</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5:F5" si="1">C4/(C6+1)/C3-1</f>
@@ -611,7 +611,7 @@
       </c>
       <c r="B7" s="2">
         <f>B4/(B6+1)/(B5+1)</f>
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" ref="C7:F7" si="3">C4/(C6+1)/(C5+1)</f>
@@ -680,7 +680,7 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" ref="B12:D12" si="5">1000/B3</f>
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="5"/>

--- a/Scheme/Timers.xlsx
+++ b/Scheme/Timers.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>period</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>Декодирование CW, …</t>
+  </si>
+  <si>
+    <t>WSPR</t>
+  </si>
+  <si>
+    <t>TIM2</t>
   </si>
 </sst>
 </file>
@@ -430,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I15"/>
+  <dimension ref="A2:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,9 +451,10 @@
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" customWidth="1"/>
     <col min="9" max="9" width="23.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
@@ -472,8 +479,11 @@
       <c r="I2" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -501,8 +511,11 @@
       <c r="I3" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="1">
+        <v>1.4648000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -515,7 +528,7 @@
         <v>240000000</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:I4" si="0">C4</f>
+        <f t="shared" ref="D4:J4" si="0">C4</f>
         <v>240000000</v>
       </c>
       <c r="E4" s="4">
@@ -538,8 +551,12 @@
         <f t="shared" si="0"/>
         <v>240000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>240000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -575,8 +592,12 @@
         <f t="shared" si="2"/>
         <v>1199</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="2">
+        <f t="shared" ref="J5" si="3">J4/(J6+1)/J3-1</f>
+        <v>16341.00014969272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -604,8 +625,12 @@
       <c r="I6" s="1">
         <v>199</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="1">
+        <v>10025</v>
+      </c>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -614,41 +639,47 @@
         <v>1000</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" ref="C7:F7" si="3">C4/(C6+1)/(C5+1)</f>
+        <f t="shared" ref="C7:F7" si="4">C4/(C6+1)/(C5+1)</f>
         <v>100</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20000</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" ref="G7:I7" si="4">G4/(G6+1)/(G5+1)</f>
-        <v>20</v>
-      </c>
-      <c r="H7" s="2">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
+      <c r="G7" s="2">
+        <f t="shared" ref="G7:I7" si="5">G4/(G6+1)/(G5+1)</f>
+        <v>20</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
       <c r="I7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="2">
+        <f t="shared" ref="J7" si="6">J4/(J6+1)/(J5+1)</f>
+        <v>1.4648000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
@@ -673,21 +704,27 @@
       <c r="I10" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" ref="B12:D12" si="5">1000/B3</f>
+        <f t="shared" ref="B12:D12" si="7">1000/B3</f>
         <v>1</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.05</v>
       </c>
       <c r="E12" s="1">
@@ -695,23 +732,27 @@
         <v>10</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" ref="F12:G12" si="6">1000/F3</f>
+        <f t="shared" ref="F12:G12" si="8">1000/F3</f>
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" ref="H12:I12" si="7">1000/H3</f>
+        <f t="shared" ref="H12:I12" si="9">1000/H3</f>
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="1">
+        <f t="shared" ref="J12" si="10">1000/J3</f>
+        <v>682.6870562534134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>

--- a/Scheme/Timers.xlsx
+++ b/Scheme/Timers.xlsx
@@ -439,7 +439,7 @@
   <dimension ref="A2:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +491,7 @@
         <v>1000</v>
       </c>
       <c r="C3" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D3" s="1">
         <v>20000</v>
@@ -566,7 +566,7 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5:F5" si="1">C4/(C6+1)/C3-1</f>
-        <v>11999</v>
+        <v>1199</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
@@ -640,7 +640,7 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" ref="C7:F7" si="4">C4/(C6+1)/(C5+1)</f>
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="4"/>
@@ -721,7 +721,7 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="7"/>

--- a/Scheme/Timers.xlsx
+++ b/Scheme/Timers.xlsx
@@ -92,13 +92,13 @@
     <t>TIM17</t>
   </si>
   <si>
-    <t>Декодирование CW, …</t>
-  </si>
-  <si>
     <t>WSPR</t>
   </si>
   <si>
     <t>TIM2</t>
+  </si>
+  <si>
+    <t>Декодирование CW, буфер FFT</t>
   </si>
 </sst>
 </file>
@@ -144,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -155,6 +155,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,7 +448,7 @@
   <dimension ref="A2:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +459,7 @@
     <col min="5" max="6" width="15.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -480,7 +489,7 @@
         <v>21</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -679,33 +688,33 @@
       <c r="G9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">

--- a/Scheme/Timers.xlsx
+++ b/Scheme/Timers.xlsx
@@ -448,7 +448,7 @@
   <dimension ref="A2:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,7 +512,7 @@
         <v>1000</v>
       </c>
       <c r="G3" s="1">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="H3" s="1">
         <v>1000</v>
@@ -591,7 +591,7 @@
       </c>
       <c r="G5" s="2">
         <f t="shared" ref="G5:I5" si="2">G4/(G6+1)/G3-1</f>
-        <v>599</v>
+        <v>1199</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="2"/>
@@ -626,7 +626,7 @@
         <v>199</v>
       </c>
       <c r="G6" s="1">
-        <v>19999</v>
+        <v>199</v>
       </c>
       <c r="H6" s="1">
         <v>199</v>
@@ -665,7 +665,7 @@
       </c>
       <c r="G7" s="2">
         <f t="shared" ref="G7:I7" si="5">G4/(G6+1)/(G5+1)</f>
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="5"/>
@@ -746,7 +746,7 @@
       </c>
       <c r="G12" s="1">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" ref="H12:I12" si="9">1000/H3</f>

--- a/Scheme/Timers.xlsx
+++ b/Scheme/Timers.xlsx
@@ -98,7 +98,7 @@
     <t>TIM2</t>
   </si>
   <si>
-    <t>Декодирование CW, буфер FFT</t>
+    <t>Декодирование CW, буфер FFT, preprocessor</t>
   </si>
 </sst>
 </file>
@@ -447,9 +447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -515,7 +513,7 @@
         <v>1000</v>
       </c>
       <c r="H3" s="1">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="I3" s="1">
         <v>1000</v>
@@ -595,7 +593,7 @@
       </c>
       <c r="H5" s="2">
         <f t="shared" si="2"/>
-        <v>1199</v>
+        <v>119</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="2"/>
@@ -629,7 +627,7 @@
         <v>199</v>
       </c>
       <c r="H6" s="1">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="I6" s="1">
         <v>199</v>
@@ -669,7 +667,7 @@
       </c>
       <c r="H7" s="2">
         <f t="shared" si="5"/>
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="5"/>
@@ -688,7 +686,7 @@
       <c r="G9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
@@ -750,7 +748,7 @@
       </c>
       <c r="H12" s="1">
         <f t="shared" ref="H12:I12" si="9">1000/H3</f>
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="9"/>
